--- a/data/income_statement/2digits/size/53_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/53_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>53-Postal and courier activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>53-Postal and courier activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>124742.09818</v>
@@ -959,34 +865,39 @@
         <v>125637.76919</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>209765.62789</v>
+        <v>209732.16281</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>358931.83231</v>
+        <v>357063.12732</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>249225.90672</v>
+        <v>244876.286</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>309213.70949</v>
+        <v>307878.10684</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>381890.50139</v>
+        <v>385832.17167</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>481953.68343</v>
+        <v>481431.60011</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>616480.87055</v>
+        <v>611869.05558</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>840147.21317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>886034.5814299999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>868911.231</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>114179.88434</v>
@@ -1001,31 +912,36 @@
         <v>201064.0145</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>326992.70146</v>
+        <v>325124.42615</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>203427.67444</v>
+        <v>199083.3826</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>247309.29155</v>
+        <v>246472.97077</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>341242.3062</v>
+        <v>346880.84519</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>406928.54213</v>
+        <v>408059.52238</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>440229.67087</v>
+        <v>434341.80736</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>599345.80897</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>615736.86448</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>661118.532</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>5201.23278</v>
@@ -1043,28 +959,33 @@
         <v>29260.24038</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>42954.81476</v>
+        <v>42952.62762</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>57744.78207</v>
+        <v>57251.32125</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>37201.49708</v>
+        <v>35523.11215</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>65429.64802</v>
+        <v>64254.8816</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>161577.49534</v>
+        <v>162817.37373</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>224566.59118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>255194.88257</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>189486.268</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>5360.981059999999</v>
@@ -1076,34 +997,39 @@
         <v>973.65277</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1229.0996</v>
+        <v>1195.63452</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>2678.89047</v>
+        <v>2678.46079</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>2843.41752</v>
+        <v>2840.27578</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>4159.63587</v>
+        <v>4153.81482</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>3446.69811</v>
+        <v>3428.21433</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>9595.493279999999</v>
+        <v>9117.19613</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>14673.70434</v>
+        <v>14709.87449</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>16234.81302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>15102.83438</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>18306.431</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>6735.17604</v>
@@ -1112,7 +1038,7 @@
         <v>7923.22283</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>542.10148</v>
+        <v>463.34188</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>449.89827</v>
@@ -1121,28 +1047,33 @@
         <v>17119.21948</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1491.767</v>
+        <v>1487.42637</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1001.34261</v>
+        <v>947.88336</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>3145.97407</v>
+        <v>3055.49183</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>2566.50274</v>
+        <v>2517.4282</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>8337.472250000001</v>
+        <v>8295.2084</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>6042.449549999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>6253.925980000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>7337.244</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>6258.317410000001</v>
@@ -1151,7 +1082,7 @@
         <v>6656.9732</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>425.90417</v>
+        <v>347.14457</v>
       </c>
       <c r="F10" s="48" t="n">
         <v>383.47678</v>
@@ -1160,28 +1091,33 @@
         <v>16504.91022</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1342.65451</v>
+        <v>1339.28845</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>753.72981</v>
+        <v>709.83654</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>2010.53957</v>
+        <v>1988.18883</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1898.2493</v>
+        <v>1832.46348</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>4116.93813</v>
+        <v>4076.51769</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>5194.252860000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>5405.72929</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>7313.655</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>409.58231</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>628.54956</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>18.074</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>67.27632000000001</v>
@@ -1238,28 +1179,33 @@
         <v>10.49868</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>20.00507</v>
+        <v>19.0305</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>68.02903000000001</v>
+        <v>58.46305</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>739.77305</v>
+        <v>671.6415500000001</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>95.41232000000001</v>
+        <v>112.1236</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>327.17038</v>
+        <v>325.32697</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>219.64713</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>5.515</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>118006.92214</v>
@@ -1268,37 +1214,42 @@
         <v>114259.39512</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>125095.66771</v>
+        <v>125174.42731</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>209315.72962</v>
+        <v>209282.26454</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>341812.61283</v>
+        <v>339943.90784</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>247734.13972</v>
+        <v>243388.85963</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>308212.36688</v>
+        <v>306930.22348</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>378744.52732</v>
+        <v>382776.67984</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>479387.18069</v>
+        <v>478914.17191</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>608143.3983</v>
+        <v>603573.8471799999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>834104.76362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>879780.6554500001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>861573.987</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>98507.70314</v>
@@ -1313,31 +1264,36 @@
         <v>180894.17632</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>292365.85501</v>
+        <v>289308.40642</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>200665.41974</v>
+        <v>198091.78092</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>242638.00545</v>
+        <v>242938.92951</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>317394.7157</v>
+        <v>323013.25258</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>401143.0433</v>
+        <v>398601.80263</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>498561.7989</v>
+        <v>496304.0759</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>692117.8933400001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>734805.91101</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>741404.093</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
@@ -1358,25 +1314,30 @@
         <v>2895.21705</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2299.36381</v>
+        <v>3142.30995</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1582.47646</v>
+        <v>1619.69352</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>5255.72958</v>
+        <v>5398.10642</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7056.29285</v>
+        <v>6438.0113</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>18110.75451</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>17273.77579</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>6635.092</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>32881.65207</v>
@@ -1391,31 +1352,36 @@
         <v>70228.63688999999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>49785.79044</v>
+        <v>49654.42318</v>
       </c>
       <c r="H16" s="48" t="n">
         <v>20564.21003</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>36584.33702000001</v>
+        <v>36381.03649</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>64419.40416</v>
+        <v>70602.07958000001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>111625.07537</v>
+        <v>111014.72768</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>62682.2993</v>
+        <v>64546.25181</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>174654.69203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>195162.81072</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>123006.232</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>65598.64335</v>
@@ -1430,31 +1396,36 @@
         <v>110309.46745</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>241343.00331</v>
+        <v>238416.92198</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>175851.52236</v>
+        <v>173294.8327</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>200321.00784</v>
+        <v>199982.28629</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>248770.84184</v>
+        <v>248169.48624</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>283463.47594</v>
+        <v>281390.20612</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>428270.21038</v>
+        <v>424766.81642</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>497674.879</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>520691.7567</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>608391.5649999999</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>27.40772</v>
@@ -1472,7 +1443,7 @@
         <v>776.3664200000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1354.4703</v>
+        <v>1337.52114</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>3433.29678</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>1677.5678</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>3371.204</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>19499.219</v>
@@ -1502,76 +1478,86 @@
         <v>18656.5261</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>24547.56737</v>
+        <v>24626.32697</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>28421.5533</v>
+        <v>28388.08822</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>49446.75782</v>
+        <v>50635.50142</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>47068.71997999999</v>
+        <v>45297.07871</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>65574.36143</v>
+        <v>63991.29397</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>61349.81162</v>
+        <v>59763.42726</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>78244.13739</v>
+        <v>80312.36928</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>109581.5994</v>
+        <v>107269.77128</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>141986.87028</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>144974.74444</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>120169.894</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>20449.07191</v>
+        <v>20415.33664</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>22500.24852</v>
+        <v>22497.77352</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>26126.90706</v>
+        <v>25664.87669</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>28663.10309</v>
+        <v>28484.57815</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>50805.76004</v>
+        <v>50689.68562</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>44353.35301</v>
+        <v>42153.05355</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>58648.12578</v>
+        <v>56772.35158</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>64475.16496</v>
+        <v>62438.97902000001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>77814.18256</v>
+        <v>85932.04113</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>104943.46146</v>
+        <v>106695.62604</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>148410.02209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>158116.08915</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>150619.711</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>2.29831</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>88.709</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>4278.317059999999</v>
@@ -1628,145 +1619,165 @@
         <v>17070.48342</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>10933.55568</v>
+        <v>10089.85344</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>12090.01545</v>
+        <v>11091.58203</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>16845.38857</v>
+        <v>16492.84598</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>13834.7755</v>
+        <v>14169.5596</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>19236.78296</v>
+        <v>19076.21258</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>27327.79318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>29709.42966</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>34481.594</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>16170.75485</v>
+        <v>16137.01958</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>17641.10811</v>
+        <v>17638.63311</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>19049.52636</v>
+        <v>18587.49599</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>20199.34644</v>
+        <v>20020.8215</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>33500.26846</v>
+        <v>33384.19404</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>33419.79733</v>
+        <v>32063.20011</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>46558.11033</v>
+        <v>45680.76955</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>47629.77639</v>
+        <v>45946.13304</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>63979.31706</v>
+        <v>71762.39153000001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>85705.8233</v>
+        <v>87618.55826000001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>121079.9306</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>128404.36118</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>116049.408</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-949.8529100000001</v>
+        <v>-916.1176400000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-3843.72242</v>
+        <v>-3841.24742</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-1579.33969</v>
+        <v>-1038.54972</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-241.54979</v>
+        <v>-96.48992999999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-1359.00222</v>
+        <v>-54.1842</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2715.36697</v>
+        <v>3144.02516</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>6926.235650000001</v>
+        <v>7218.942389999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-3125.35334</v>
+        <v>-2675.55176</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>429.95483</v>
+        <v>-5619.67185</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>4638.137940000001</v>
+        <v>574.1452399999999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-6423.151809999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-13141.34471</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-30449.817</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>791.17843</v>
+        <v>669.26478</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>644.1576</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1697.25501</v>
+        <v>1414.73816</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>759.3129399999999</v>
+        <v>571.5092</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3898.92098</v>
+        <v>2333.01256</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>8694.89783</v>
+        <v>6172.21813</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>9904.97164</v>
+        <v>8592.84376</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>8881.49099</v>
+        <v>7712.40074</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>10540.50408</v>
+        <v>9487.34288</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>40014.43013</v>
+        <v>38196.08371</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>23978.57897</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>28970.58998</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>20789.797</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1781,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>1173.32445</v>
+        <v>0.81429</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1315.19308</v>
+        <v>0</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>0</v>
@@ -1793,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>485.37909</v>
+        <v>26.37909</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>12.55862</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>33.423</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>30.106</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>27.98689</v>
@@ -1853,37 +1874,42 @@
         <v>35.15703</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>116.18997</v>
+        <v>116.10997</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>56.40669</v>
+        <v>18.14865</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>751.63519</v>
+        <v>714.26706</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>376.68821</v>
+        <v>266.69712</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>861.65206</v>
+        <v>607.8312900000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>480.32525</v>
+        <v>226.69276</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>395.22261</v>
+        <v>1819.04648</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1564.86255</v>
+        <v>3485.18021</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1479.26608</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2914.88889</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2063.52</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>8.21833</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0.08095999999999999</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>359.03301</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>174.555</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>6.16434</v>
@@ -1988,58 +2024,68 @@
         <v>0</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>48.64219</v>
+        <v>48.30508</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>16.69898</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>9.49958</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>3.66337</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>535.4356899999999</v>
+        <v>413.52204</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>379.83528</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1182.57628</v>
+        <v>900.1394300000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>316.7471</v>
+        <v>167.2014</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1159.04964</v>
+        <v>803.38102</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>6334.321599999999</v>
+        <v>5451.70908</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>8155.20929</v>
+        <v>7098.47707</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>7060.46408</v>
+        <v>6365.90427</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>7798.02633</v>
+        <v>6157.67293</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>36622.97144</v>
+        <v>33211.02474</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>19085.54699</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>23040.97338</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>15999.692</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>213.29222</v>
@@ -2132,70 +2188,80 @@
         <v>360.39008</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>689.4720500000001</v>
+        <v>689.11054</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>525.42452</v>
+        <v>310.54151</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>743.6529300000001</v>
+        <v>742.07804</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1340.61125</v>
+        <v>1119.7133</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1813.23386</v>
+        <v>1435.9393</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1805.97821</v>
+        <v>1479.26083</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>3032.67469</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2639.47271</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2461.601</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>961.92747</v>
+        <v>851.2976600000001</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>578.85927</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2090.50571</v>
+        <v>1014.62203</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>509.57588</v>
+        <v>351.54991</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1764.35781</v>
+        <v>1746.18458</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>6806.639450000001</v>
+        <v>5796.59594</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>9180.50863</v>
+        <v>8592.232310000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>7113.08209</v>
+        <v>6795.57754</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>8770.972449999999</v>
+        <v>7655.55582</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>38279.81086</v>
+        <v>33597.89273</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>19875.93835</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>22019.16418</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>15879.36</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>179.86583</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>12.61932</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>43.117</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>25.8123</v>
@@ -2261,7 +2332,7 @@
         <v>404.84236</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>24.73741</v>
+        <v>31.49327</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>199.83333</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>1648.04918</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>208.353</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>724.02691</v>
+        <v>613.3971</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>372.54116</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1928.22548</v>
+        <v>852.3418</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>335.91487</v>
+        <v>177.8889</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>542.3409399999999</v>
+        <v>524.1677100000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>6119.59189</v>
+        <v>5109.54838</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>7330.82366</v>
+        <v>6742.54735</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>6590.61143</v>
+        <v>6210.34972</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>8281.358110000001</v>
+        <v>7232.44458</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>37919.00006000001</v>
+        <v>33237.08181</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>17158.8524</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>19390.79325</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>15384.192</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>32.22243</v>
@@ -2450,67 +2546,77 @@
         <v>60.90409</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1489.22559</v>
+        <v>1489.22558</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>88.5484</v>
+        <v>151.30556</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>421.3960300000001</v>
+        <v>348.13707</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>132.59329</v>
+        <v>132.59341</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1056.41745</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>967.70243</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>243.698</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>1161.05906</v>
+        <v>1143.24521</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>748.22442</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>819.37086</v>
+        <v>579.4772399999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1249.3794</v>
+        <v>1248.7494</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1732.60361</v>
+        <v>1729.9721</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>2329.46721</v>
+        <v>2287.00693</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2357.30293</v>
+        <v>2329.11248</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2791.80167</v>
+        <v>2748.55326</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>3538.99883</v>
+        <v>3370.88491</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>5595.4527</v>
+        <v>4610.1042</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>7027.914309999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>5849.326889999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>5870.887</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>1161.05906</v>
+        <v>1143.24521</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>748.22442</v>
@@ -2519,34 +2625,39 @@
         <v>427.73164</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1249.3794</v>
+        <v>1248.7494</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1732.0453</v>
+        <v>1729.41379</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>2329.46721</v>
+        <v>2287.00693</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2357.30293</v>
+        <v>2329.11248</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2723.94467</v>
+        <v>2680.69626</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>3508.65293</v>
+        <v>3340.53901</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>5245.01575</v>
+        <v>4259.66725</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>7027.914309999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>5849.326889999999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>5870.887</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2555,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>391.63922</v>
+        <v>151.7456</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>0</v>
@@ -2581,50 +2692,60 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-2281.66101</v>
+        <v>-2241.39573</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-4526.64851</v>
+        <v>-4524.17351</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-2791.96125</v>
+        <v>-1217.91083</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-1241.19213</v>
+        <v>-1125.28004</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-957.0426600000001</v>
+        <v>-1197.32832</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>2274.15814</v>
+        <v>1232.64042</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>5293.39573</v>
+        <v>4890.441360000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-4148.74611</v>
+        <v>-4507.28182</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-1339.51237</v>
+        <v>-7158.7697</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>777.3045100000001</v>
+        <v>562.23202</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-9348.425499999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-12039.2458</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-31410.267</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>493.68058</v>
@@ -2633,7 +2754,7 @@
         <v>873.36936</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1621.44389</v>
+        <v>480.47086</v>
       </c>
       <c r="F48" s="47" t="n">
         <v>693.45617</v>
@@ -2642,28 +2763,33 @@
         <v>1740.41055</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>937.63814</v>
+        <v>936.0704899999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1825.96406</v>
+        <v>1820.84282</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2897.38421</v>
+        <v>2809.93572</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>4486.88418</v>
+        <v>23324.36885</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>3616.96928</v>
+        <v>3621.20079</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>6830.10696</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>6722.94968</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>9975.397999999999</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>11.86441</v>
@@ -2696,13 +2822,18 @@
         <v>3.71717</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1.88538</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1.69713</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>481.81617</v>
@@ -2711,7 +2842,7 @@
         <v>856.46723</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1616.71187</v>
+        <v>475.73884</v>
       </c>
       <c r="F50" s="48" t="n">
         <v>679.3305</v>
@@ -2720,28 +2851,33 @@
         <v>1740.41055</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>922.4870100000001</v>
+        <v>920.91936</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1822.45266</v>
+        <v>1817.33142</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2892.27034</v>
+        <v>2804.82185</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>4449.55937</v>
+        <v>23287.04404</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>3613.25211</v>
+        <v>3617.48362</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>6828.22158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>6721.25255</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>9968.647999999999</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1190.62726</v>
@@ -2750,37 +2886,42 @@
         <v>637.66124</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>8294.104890000001</v>
+        <v>5878.127179999999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>940.56664</v>
+        <v>847.93542</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1351.56553</v>
+        <v>1351.46934</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1771.66025</v>
+        <v>1762.2558</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1810.16675</v>
+        <v>1884.05701</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>4353.64153</v>
+        <v>4227.02313</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>4227.2812</v>
+        <v>10744.29587</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>5847.10112</v>
+        <v>5791.315519999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>3220.45927</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>3538.8115</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>3373.838</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>50.83314</v>
@@ -2840,25 +2986,30 @@
         <v>2.26061</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>226.4631</v>
+        <v>220.76337</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>13.556</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>15.97018</v>
+        <v>28.56401</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>535.51469</v>
+        <v>532.01123</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>69.83702000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>30.90808</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>0.299</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>1139.79412</v>
@@ -2867,76 +3018,86 @@
         <v>617.91265</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>8293.645339999999</v>
+        <v>5877.66763</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>775.73199</v>
+        <v>683.10077</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1275.12095</v>
+        <v>1275.02476</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1767.16855</v>
+        <v>1757.7641</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1279.13169</v>
+        <v>1358.72168</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>4340.08553</v>
+        <v>4213.46713</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>4211.311019999999</v>
+        <v>10715.73186</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>5311.586429999999</v>
+        <v>5259.30429</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>3150.62225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>3507.90342</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>3373.539</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-2978.60769</v>
+        <v>-2938.34241</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-4290.94039</v>
+        <v>-4288.465389999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-9464.62225</v>
+        <v>-6615.567150000001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-1488.3026</v>
+        <v>-1279.75929</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-568.19764</v>
+        <v>-808.38711</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1440.13603</v>
+        <v>406.45511</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>5309.19304</v>
+        <v>4827.22717</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-5605.00343</v>
+        <v>-5924.36923</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-1079.90939</v>
+        <v>5421.30328</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-1452.82733</v>
+        <v>-1607.88271</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-5738.77781</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-8855.107619999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-24808.707</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>453.80272</v>
@@ -2951,67 +3112,75 @@
         <v>1049.83476</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>2524.00817</v>
+        <v>2152.20706</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1911.9479</v>
+        <v>1575.32199</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>2689.93264</v>
+        <v>2444.4906</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1512.12437</v>
+        <v>1472.31708</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1767.22908</v>
+        <v>1393.30829</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>4856.85253</v>
+        <v>4739.641610000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>4536.70129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>4378.64093</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>4818.628</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-3432.41041</v>
+        <v>-3392.14513</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-4856.58941</v>
+        <v>-4854.11441</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-10090.79664</v>
+        <v>-7241.74154</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-2538.13736</v>
+        <v>-2329.59405</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-3092.20581</v>
+        <v>-2960.59417</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-471.81187</v>
+        <v>-1168.86688</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2619.2604</v>
+        <v>2382.73657</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-7117.1278</v>
+        <v>-7396.686309999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-2847.13847</v>
+        <v>4027.99499</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-6309.67986</v>
+        <v>-6347.52432</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-10275.4791</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-13233.74855</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-29627.335</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H59" s="35" t="n">
+        <v>139</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>158</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>162</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>173</v>
+      </c>
+      <c r="L59" s="35" t="n">
         <v>156</v>
       </c>
-      <c r="I59" s="35" t="n">
-        <v>172</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>187</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>203</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>165</v>
-      </c>
       <c r="M59" s="35" t="n">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>170</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>